--- a/메를로랩_정보 구조(IA).xlsx
+++ b/메를로랩_정보 구조(IA).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\웹컴바인\포폴\merlotlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\웹컴바인\포폴\merlotlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1A37EA-C182-4C82-93D2-2CAED3BB80CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>버전</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -299,13 +300,17 @@
   </si>
   <si>
     <t>hover -&gt; opacity:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) header_menu 오른쪽으로 치우침</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -494,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,71 +518,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,11 +854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -876,91 +872,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="K1" s="15" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="P1" s="17" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="P1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="18">
         <v>45245</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="K2" s="16" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="K2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="P2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="K3" s="20" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="K3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
@@ -970,20 +968,20 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="K4" s="20" t="s">
+      <c r="H4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
@@ -992,16 +990,16 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
     </row>
     <row r="6" spans="1:19">
       <c r="B6" t="s">
@@ -1010,19 +1008,19 @@
       <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
@@ -1031,74 +1029,74 @@
       <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="8"/>
+      <c r="B8" s="10"/>
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="8"/>
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="B10" s="8"/>
+      <c r="B10" s="10"/>
       <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" ht="17.25" thickBot="1">
-      <c r="B11" s="8"/>
+      <c r="B11" s="10"/>
       <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="4" t="s">
@@ -1115,19 +1113,18 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="24"/>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" thickBot="1">
       <c r="B14" t="s">
@@ -1260,52 +1257,52 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="8"/>
+      <c r="B29" s="10"/>
       <c r="C29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="8"/>
+      <c r="B30" s="10"/>
       <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="8"/>
+      <c r="B31" s="10"/>
       <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1">
-      <c r="B33" s="27"/>
+      <c r="B33" s="11"/>
       <c r="C33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="26"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="4"/>
@@ -1319,28 +1316,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B7:B11"/>
@@ -1350,6 +1325,28 @@
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="B28:B31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
